--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE5CE4-867F-4836-B943-4264583A0918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF2B3C-0428-4793-9D82-DCC734F8A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login_test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF2B3C-0428-4793-9D82-DCC734F8A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F926C2-A48C-42AC-AB81-5ECBEAB04261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>admin@yourstore.com</t>
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,18 +404,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F926C2-A48C-42AC-AB81-5ECBEAB04261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9337759-F8A2-4719-9925-7A619F95625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>test@email.com</t>
+  </si>
+  <si>
+    <t>welcome123</t>
   </si>
 </sst>
 </file>
@@ -107,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,15 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -418,8 +426,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{3DD9FC15-0FC9-4855-BE42-267E6151E91F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9337759-F8A2-4719-9925-7A619F95625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A032F1-38CB-4C1B-9E19-959E1C624A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>welcome123</t>
+  </si>
+  <si>
+    <t>created_from_date</t>
+  </si>
+  <si>
+    <t>created_to_date</t>
   </si>
 </sst>
 </file>
@@ -113,11 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -408,30 +415,50 @@
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="4">
+        <v>42736</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44541</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42736</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44541</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A032F1-38CB-4C1B-9E19-959E1C624A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC38616-B990-4597-A9E9-ACD7789E2E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC38616-B990-4597-A9E9-ACD7789E2E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE9D64-FC3C-406D-AD57-3C9CF7E8E5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>test@email.com</t>
-  </si>
-  <si>
-    <t>welcome123</t>
   </si>
   <si>
     <t>created_from_date</t>
@@ -408,7 +402,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,10 +421,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -448,24 +442,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>42736</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44541</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{3DD9FC15-0FC9-4855-BE42-267E6151E91F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE9D64-FC3C-406D-AD57-3C9CF7E8E5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89284EB7-69C3-41AA-842D-E72358733D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,12 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,18 +435,12 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>42736</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>44541</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89284EB7-69C3-41AA-842D-E72358733D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903919C0-DB65-4E93-AFDE-C4E0CBF23D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903919C0-DB65-4E93-AFDE-C4E0CBF23D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D96D1E-5788-4204-84B5-8727CE6577B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>created_to_date</t>
+  </si>
+  <si>
+    <t>1/1/2017</t>
+  </si>
+  <si>
+    <t>11/15/2021</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -403,7 +409,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,11 +441,11 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>42736</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44541</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Data/test_data.xlsx
+++ b/Excel_Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh_Mukherjee\PycharmProjects\Demo_WebShop_POM\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D96D1E-5788-4204-84B5-8727CE6577B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A8330-F340-48CE-889A-AA26569E5809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>11/15/2021</t>
+  </si>
+  <si>
+    <t>test@email.com</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,8 +451,25 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{8F483066-D706-46CA-9D9A-2CADC249438D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>